--- a/bloodDonation.xlsx
+++ b/bloodDonation.xlsx
@@ -422,24 +422,12 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Meenu</t>
-        </is>
+      <c r="A1" t="inlineStr"/>
+      <c r="B1" t="inlineStr"/>
+      <c r="C1" t="n">
+        <v>18</v>
       </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>O+</t>
-        </is>
-      </c>
-      <c r="C1" t="n">
-        <v>19</v>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>123</t>
-        </is>
-      </c>
+      <c r="D1" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
